--- a/BackTest/2020-01-15 BackTest LUNA.xlsx
+++ b/BackTest/2020-01-15 BackTest LUNA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1804,7 +1804,7 @@
         <v>64810.22299999999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>70250.81689999999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>60538.00199999999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>69499.50589999999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>69499.50589999999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>55447.22979999999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>69216.61339999999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>69216.61339999999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>63137.04329999999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>68727.97819999998</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>81206.84069999999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>74560.57419999999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>86016.69579999999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>92738.77539999998</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>85225.74599999998</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>78603.94239999999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>78603.94239999999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>85844.93639999999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>77669.63029999999</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>82752.44429999999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>82752.44429999999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>82752.44429999999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>82752.44429999999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>87978.94149999999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>80899.60729999999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>90886.96689999998</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>82673.83399999999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>92742.5042</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>92742.5042</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>100581.3541</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>100581.3541</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>139628.74076011</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>147421.53956011</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>136290.47646011</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>145283.12396011</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>137936.37456011</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>129569.41676011</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>135928.38846011</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>116398.96496011</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>124453.66976011</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>116778.43206011</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>109482.58196011</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>119314.22846011</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>119314.22846011</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>115262.43206011</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>123168.86676011</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>115272.38466011</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>124402.21356011</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>130720.02466011</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>130720.02466011</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>122423.03476011</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>115227.53256011</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>125677.28626011</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>114718.94396011</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>109351.76136011</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>119209.41966011</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>124695.18196011</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>118441.09306011</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>128001.79436011</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>136004.95166011</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>136004.95166011</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>146056.93906011</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>146056.93906011</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>137339.86916011</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>147787.79096011</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>139670.01606011</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>149625.73486011</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>156346.80986011</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>147319.60206011</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>140676.84606011</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>152241.70976011</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>135766.74736011</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>156925.56566011</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>146632.13166011</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>146632.13166011</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>154728.00236011</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>145503.27866011</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>153737.21836011</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>146638.26686011</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>154632.83576011</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>164862.21906011</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>164337.11236011</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>156440.1726601101</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>162649.0133601101</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>153831.0630601101</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>147380.2738601101</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>154314.31586011</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>146417.01726011</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>146417.01726011</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>146417.01726011</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>142749.68306011</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>131056.51266011</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>141070.29536011</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>147983.91276011</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>136515.40256011</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>126840.60896011</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>134655.49876011</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>125071.69156011</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>134910.47716011</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>143067.42696011</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>135245.30196011</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>143769.54546011</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>136755.48436011</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>143073.9410601101</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>135160.0005601101</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>142055.1330601101</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>152759.8184601101</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>160015.81456011</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>150280.15046011</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>154533.72386011</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>141914.89497218</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>144682.66887218</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>149534.24797218</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>132754.80027218</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>144539.36647218</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>134733.02657218</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>126699.35877218</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>126699.35877218</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>133348.61367218</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>126760.87287218</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>136324.0612721801</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>131313.8842721801</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>141125.1955721801</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>132031.8508721801</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>155304.9154721801</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>163765.2780721801</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>169704.8308721801</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>164065.13947218</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>154953.81477218</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>162237.6217721801</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>154339.3875721801</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>163979.2650721801</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>167214.3018721801</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>157295.4145721801</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>156887.8038721801</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>162504.4209721801</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>168764.1473721801</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>160442.1791721801</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>181544.8413721801</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>173630.2347721801</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>164840.3395721801</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>159620.0253721801</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>151741.1216721801</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>158819.3396721801</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>150651.6733721801</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>154168.45077218</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>132036.6470721801</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>124727.2043721801</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>134329.08987218</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>125164.1319721801</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>132343.5679721801</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>139328.0569721801</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>150647.5778721801</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>142071.2454721801</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>151481.5768721801</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>145284.9079721801</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>156708.8391721801</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>58672.62107218007</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>52090.61972165007</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>66780.02552165007</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>59478.55675643001</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>66768.00635643001</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>86265.59055643002</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>108838.17905643</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>99029.47125643001</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>107344.90695643</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>107344.90695643</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>97639.23575643002</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>107665.40395643</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>98828.60645643002</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>106520.35545643</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>95812.13425643001</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>104870.80925643</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>96012.15795643002</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>102053.91395643</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>109368.25365643</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>98432.46645643</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>107951.26095643</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>97427.96645643</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>104837.95105643</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>104837.95105643</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>96842.50815643001</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>88557.22445643001</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>80150.52945643</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>89295.39845643</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>98505.44205643001</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>98505.44205643001</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>89900.14525643001</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>99575.08045643001</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>92054.49685643001</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>86068.22925643</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>78363.71185643</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>87245.66785643001</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>96497.81035643001</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>87070.95375643001</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>87070.95375643001</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>92284.76565643001</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>81912.88395643001</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>87600.75085643001</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>78645.69875643001</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>99098.51365643</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>89323.54215643</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>98574.78815643</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>89287.08665643001</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>96002.44625643</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>89675.54455643</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>100734.68255643</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>108267.29825643</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>108267.29825643</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>97520.36265643001</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>89656.26935643001</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>96826.61045643002</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>104656.79835643</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>98697.03275643002</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>106991.23415643</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>95000.85685643004</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>87247.79865643004</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>87247.79865643004</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>87247.79865643004</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>87247.79865643004</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>95926.10025643004</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>102339.62715643</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>95317.19805643005</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>105527.31475643</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>112105.68392194</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>102202.90272194</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>94300.08382194005</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>85764.75422194005</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>95601.97182194005</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>100690.5904219401</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>92786.59842194006</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>99194.19392194005</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>90701.07962194005</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>100607.7497219401</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>92490.62622194005</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>97647.08642194005</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>88821.84532194005</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>80735.26752194006</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>73345.97092194005</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>73345.97092194005</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>85773.91392194005</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>96325.86572194005</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>88753.28682194004</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>99480.49712194005</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>106487.63382194</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>106487.63382194</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>98824.70422194005</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>110633.94592194</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>103732.24392194</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>114097.91172194</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>106323.15932194</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>116659.20672194</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>107747.96042194</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>101534.07112194</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>109990.77362194</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>116797.63222194</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>121623.93482194</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>114597.19402194</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>105670.85042194</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>95829.03402194004</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>87293.22852194004</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>87293.22852194004</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>87293.22852194004</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>87293.22852194004</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>95584.30482194004</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>88589.12292194004</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>100367.52282194</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>92180.39922194004</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>84207.60332194004</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>94100.52292194004</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>98080.09192194004</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>98080.09192194004</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>88376.77232194004</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>79808.64112194003</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>66439.04242194003</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>63678.84112194003</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>104648.10712194</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>100887.56832194</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>76394.77282194005</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>68130.84312194004</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>52322.74852194004</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>53700.31202194004</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>53756.84202194004</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>47634.96262194004</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>47767.31262194004</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>47767.31262194004</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -25102,11 +25102,17 @@
         <v>-238911.41897806</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I749" t="n">
+        <v>221.9</v>
+      </c>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25139,7 +25145,11 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25172,7 +25182,11 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25205,7 +25219,11 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25238,7 +25256,11 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25271,7 +25293,11 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25304,7 +25330,11 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25337,7 +25367,11 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25370,7 +25404,11 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25403,7 +25441,11 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25436,7 +25478,11 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -25469,7 +25515,11 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -25502,7 +25552,11 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -25535,7 +25589,11 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -25568,7 +25626,11 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -25601,7 +25663,11 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -25634,7 +25700,11 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -25663,11 +25733,17 @@
         <v>-349371.85067806</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
-      </c>
-      <c r="I766" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I766" t="n">
+        <v>221.2</v>
+      </c>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -25696,11 +25772,17 @@
         <v>-350520.76937806</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
-      </c>
-      <c r="I767" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I767" t="n">
+        <v>221.6</v>
+      </c>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -25729,11 +25811,17 @@
         <v>-365729.2947780599</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
-      </c>
-      <c r="I768" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I768" t="n">
+        <v>221.5</v>
+      </c>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -25762,11 +25850,17 @@
         <v>-360705.01697806</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
-      </c>
-      <c r="I769" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I769" t="n">
+        <v>221.2</v>
+      </c>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -25795,11 +25889,17 @@
         <v>-352184.74147806</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
-      </c>
-      <c r="I770" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I770" t="n">
+        <v>221.4</v>
+      </c>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -25828,11 +25928,17 @@
         <v>-356716.89527806</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
-      </c>
-      <c r="I771" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I771" t="n">
+        <v>221.6</v>
+      </c>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -25861,11 +25967,17 @@
         <v>-356716.89527806</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
-      </c>
-      <c r="I772" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I772" t="n">
+        <v>221.3</v>
+      </c>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -25894,11 +26006,17 @@
         <v>-352577.04177806</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
-      </c>
-      <c r="I773" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I773" t="n">
+        <v>221.3</v>
+      </c>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -25927,11 +26045,17 @@
         <v>-357677.55267806</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
-      </c>
-      <c r="I774" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I774" t="n">
+        <v>223.8</v>
+      </c>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -25960,11 +26084,17 @@
         <v>-361092.91787806</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
-      </c>
-      <c r="I775" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I775" t="n">
+        <v>222.1</v>
+      </c>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -25993,11 +26123,17 @@
         <v>-365940.39577806</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
-      </c>
-      <c r="I776" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I776" t="n">
+        <v>222</v>
+      </c>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26026,11 +26162,17 @@
         <v>-362420.14617806</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
-      </c>
-      <c r="I777" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I777" t="n">
+        <v>221.5</v>
+      </c>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26059,11 +26201,17 @@
         <v>-368111.09627806</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
-      </c>
-      <c r="I778" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I778" t="n">
+        <v>221.9</v>
+      </c>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26092,11 +26240,17 @@
         <v>-368111.09627806</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
-      </c>
-      <c r="I779" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I779" t="n">
+        <v>221.6</v>
+      </c>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26125,11 +26279,17 @@
         <v>-363669.81787806</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
-      </c>
-      <c r="I780" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I780" t="n">
+        <v>221.6</v>
+      </c>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26158,11 +26318,17 @@
         <v>-358338.51297806</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
-      </c>
-      <c r="I781" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I781" t="n">
+        <v>221.9</v>
+      </c>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26191,11 +26357,17 @@
         <v>-361891.54337806</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
-      </c>
-      <c r="I782" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I782" t="n">
+        <v>222.1</v>
+      </c>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26228,7 +26400,11 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26261,7 +26437,11 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26290,11 +26470,17 @@
         <v>-357500.4788780599</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
-      </c>
-      <c r="I785" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I785" t="n">
+        <v>222.1</v>
+      </c>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26327,7 +26513,11 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26356,11 +26546,17 @@
         <v>-357820.75757806</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
-      </c>
-      <c r="I787" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I787" t="n">
+        <v>222.2</v>
+      </c>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26389,11 +26585,17 @@
         <v>-354522.61387806</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
-      </c>
-      <c r="I788" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I788" t="n">
+        <v>221.9</v>
+      </c>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26422,11 +26624,17 @@
         <v>-354522.61387806</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
-      </c>
-      <c r="I789" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I789" t="n">
+        <v>222.1</v>
+      </c>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26459,7 +26667,11 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26492,7 +26704,11 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26525,7 +26741,11 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26558,7 +26778,11 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26591,7 +26815,11 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26620,11 +26848,17 @@
         <v>-372497.06357806</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
-      </c>
-      <c r="I795" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I795" t="n">
+        <v>221</v>
+      </c>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -26653,11 +26887,17 @@
         <v>-367362.90217806</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
-      </c>
-      <c r="I796" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I796" t="n">
+        <v>221.1</v>
+      </c>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -26686,11 +26926,17 @@
         <v>-370906.74147806</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
-      </c>
-      <c r="I797" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I797" t="n">
+        <v>221.2</v>
+      </c>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -26719,7 +26965,7 @@
         <v>-370906.74147806</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I798" t="n">
         <v>221</v>
@@ -26727,7 +26973,7 @@
       <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L798" t="n">
@@ -26758,9 +27004,11 @@
         <v>-367878.95513488</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
-      </c>
-      <c r="I799" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I799" t="n">
+        <v>221</v>
+      </c>
       <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr">
         <is>
@@ -26795,7 +27043,7 @@
         <v>-370813.41563488</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I800" t="n">
         <v>222.3</v>
@@ -26834,7 +27082,7 @@
         <v>-370813.41563488</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I801" t="n">
         <v>222.1</v>
@@ -26984,11 +27232,9 @@
         <v>-351538.16323488</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
-      </c>
-      <c r="I805" t="n">
-        <v>222.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
@@ -27430,11 +27676,9 @@
         <v>-361349.99703488</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
-      </c>
-      <c r="I817" t="n">
-        <v>223.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr">
         <is>
@@ -28579,11 +28823,9 @@
         <v>-399098.2333246401</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
-      </c>
-      <c r="I848" t="n">
-        <v>221.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr">
         <is>
@@ -28729,9 +28971,11 @@
         <v>-399436.3300246401</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
-      </c>
-      <c r="I852" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I852" t="n">
+        <v>222</v>
+      </c>
       <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
@@ -29617,11 +29861,9 @@
         <v>-433757.3015246402</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
-      </c>
-      <c r="I876" t="n">
-        <v>221.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr">
         <is>
@@ -29656,9 +29898,11 @@
         <v>-427871.8485246402</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
-      </c>
-      <c r="I877" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I877" t="n">
+        <v>221.1</v>
+      </c>
       <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr">
         <is>
@@ -29693,11 +29937,9 @@
         <v>-431715.9836246402</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
-      </c>
-      <c r="I878" t="n">
-        <v>221.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr">
         <is>
@@ -29732,7 +29974,7 @@
         <v>-436316.7895246402</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I879" t="n">
         <v>221.1</v>
@@ -29771,7 +30013,7 @@
         <v>-431713.3333246402</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I880" t="n">
         <v>220.9</v>
@@ -29810,7 +30052,7 @@
         <v>-428399.7143246402</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I881" t="n">
         <v>221.1</v>
@@ -29849,7 +30091,7 @@
         <v>-423222.4844246402</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I882" t="n">
         <v>221.6</v>
@@ -29888,7 +30130,7 @@
         <v>-428564.7865246402</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I883" t="n">
         <v>221.9</v>
@@ -29927,7 +30169,7 @@
         <v>-431710.5639246402</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I884" t="n">
         <v>221.8</v>
@@ -29966,7 +30208,7 @@
         <v>-450243.4582246402</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I885" t="n">
         <v>221.6</v>
@@ -30005,7 +30247,7 @@
         <v>-450243.4582246402</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I886" t="n">
         <v>221.4</v>
@@ -30044,7 +30286,7 @@
         <v>-450243.4582246402</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I887" t="n">
         <v>221.4</v>
@@ -30083,7 +30325,7 @@
         <v>-382330.5930246402</v>
       </c>
       <c r="H888" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I888" t="n">
         <v>221.4</v>
@@ -30122,11 +30364,9 @@
         <v>-379268.5777246401</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
-      </c>
-      <c r="I889" t="n">
-        <v>222.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
       <c r="K889" t="inlineStr">
         <is>
@@ -30383,9 +30623,11 @@
         <v>-437692.4542246401</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
-      </c>
-      <c r="I896" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I896" t="n">
+        <v>221.3</v>
+      </c>
       <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr">
         <is>
@@ -30420,7 +30662,7 @@
         <v>-432637.9572246401</v>
       </c>
       <c r="H897" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I897" t="n">
         <v>221.1</v>
@@ -30459,7 +30701,7 @@
         <v>-445907.4056246401</v>
       </c>
       <c r="H898" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I898" t="n">
         <v>221.3</v>
@@ -30498,7 +30740,7 @@
         <v>-436359.6296246401</v>
       </c>
       <c r="H899" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I899" t="n">
         <v>221</v>
@@ -30537,7 +30779,7 @@
         <v>-436359.6296246401</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I900" t="n">
         <v>221.3</v>
@@ -30576,7 +30818,7 @@
         <v>-441794.3495246401</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I901" t="n">
         <v>221.3</v>
@@ -30615,7 +30857,7 @@
         <v>-438836.0562246401</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I902" t="n">
         <v>221.1</v>
@@ -30654,7 +30896,7 @@
         <v>-442911.3457246401</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I903" t="n">
         <v>221.7</v>
@@ -30693,7 +30935,7 @@
         <v>-333526.6692246401</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I904" t="n">
         <v>221.4</v>
@@ -30880,9 +31122,11 @@
         <v>-331126.5321246401</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
-      </c>
-      <c r="I909" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I909" t="n">
+        <v>221.6</v>
+      </c>
       <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr">
         <is>
@@ -30917,9 +31161,11 @@
         <v>-334101.1488246401</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
-      </c>
-      <c r="I910" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I910" t="n">
+        <v>221.8</v>
+      </c>
       <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr">
         <is>
@@ -30954,9 +31200,11 @@
         <v>-334101.1488246401</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
-      </c>
-      <c r="I911" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I911" t="n">
+        <v>221.6</v>
+      </c>
       <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr">
         <is>
@@ -30991,9 +31239,11 @@
         <v>-334101.1488246401</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
-      </c>
-      <c r="I912" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I912" t="n">
+        <v>221.6</v>
+      </c>
       <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr">
         <is>
@@ -31028,9 +31278,11 @@
         <v>-331014.1523246401</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
-      </c>
-      <c r="I913" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I913" t="n">
+        <v>221.6</v>
+      </c>
       <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr">
         <is>
@@ -31065,9 +31317,11 @@
         <v>-334525.7987246401</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
-      </c>
-      <c r="I914" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I914" t="n">
+        <v>221.7</v>
+      </c>
       <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr">
         <is>
@@ -31102,7 +31356,7 @@
         <v>-331754.6144246401</v>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I915" t="n">
         <v>221.6</v>
@@ -31141,9 +31395,11 @@
         <v>-331754.6144246401</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
-      </c>
-      <c r="I916" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I916" t="n">
+        <v>222.1</v>
+      </c>
       <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr">
         <is>
@@ -31178,9 +31434,11 @@
         <v>-331754.6144246401</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
-      </c>
-      <c r="I917" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I917" t="n">
+        <v>222.1</v>
+      </c>
       <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr">
         <is>
@@ -31215,9 +31473,11 @@
         <v>-331754.6144246401</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
-      </c>
-      <c r="I918" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I918" t="n">
+        <v>222.1</v>
+      </c>
       <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr">
         <is>
@@ -33953,7 +34213,7 @@
         <v>-195556.74312464</v>
       </c>
       <c r="H992" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -33990,7 +34250,7 @@
         <v>-151037.94702464</v>
       </c>
       <c r="H993" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -34064,7 +34324,7 @@
         <v>-170278.16952464</v>
       </c>
       <c r="H995" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -34101,7 +34361,7 @@
         <v>-178629.89692464</v>
       </c>
       <c r="H996" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -34138,7 +34398,7 @@
         <v>-175855.03292464</v>
       </c>
       <c r="H997" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -34212,7 +34472,7 @@
         <v>-207203.13192464</v>
       </c>
       <c r="H999" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -34249,7 +34509,7 @@
         <v>-199406.13072464</v>
       </c>
       <c r="H1000" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -34286,7 +34546,7 @@
         <v>-223059.81802464</v>
       </c>
       <c r="H1001" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -34767,18 +35027,16 @@
         <v>-259404.57782464</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
       <c r="K1014" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L1014" t="n">
-        <v>1</v>
-      </c>
+      <c r="L1014" t="inlineStr"/>
       <c r="M1014" t="inlineStr"/>
     </row>
     <row r="1015">
@@ -34808,11 +35066,7 @@
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1015" t="inlineStr"/>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -34845,11 +35099,7 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1016" t="inlineStr"/>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -34882,11 +35132,7 @@
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1017" t="inlineStr"/>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -34919,11 +35165,7 @@
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1018" t="inlineStr"/>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -34956,11 +35198,7 @@
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1019" t="inlineStr"/>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -34993,11 +35231,7 @@
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1020" t="inlineStr"/>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -35030,11 +35264,7 @@
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1021" t="inlineStr"/>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -35067,11 +35297,7 @@
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1022" t="inlineStr"/>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -35104,11 +35330,7 @@
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1023" t="inlineStr"/>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -35141,11 +35363,7 @@
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1024" t="inlineStr"/>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -35178,11 +35396,7 @@
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1025" t="inlineStr"/>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -35215,11 +35429,7 @@
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1026" t="inlineStr"/>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -35252,11 +35462,7 @@
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1027" t="inlineStr"/>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -35289,11 +35495,7 @@
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1028" t="inlineStr"/>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -35326,11 +35528,7 @@
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1029" t="inlineStr"/>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -35363,11 +35561,7 @@
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1030" t="inlineStr"/>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -35400,11 +35594,7 @@
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1031" t="inlineStr"/>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -35437,11 +35627,7 @@
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1032" t="inlineStr"/>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -35474,11 +35660,7 @@
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1033" t="inlineStr"/>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -35511,11 +35693,7 @@
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1034" t="inlineStr"/>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -35548,11 +35726,7 @@
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1035" t="inlineStr"/>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -35585,11 +35759,7 @@
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1036" t="inlineStr"/>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -35622,11 +35792,7 @@
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1037" t="inlineStr"/>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -35659,11 +35825,7 @@
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1038" t="inlineStr"/>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -35696,11 +35858,7 @@
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1039" t="inlineStr"/>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -35733,11 +35891,7 @@
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1040" t="inlineStr"/>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -35770,11 +35924,7 @@
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1041" t="inlineStr"/>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -35807,11 +35957,7 @@
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1042" t="inlineStr"/>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -35844,11 +35990,7 @@
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1043" t="inlineStr"/>
       <c r="L1043" t="n">
         <v>1</v>
       </c>
@@ -35881,11 +36023,7 @@
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1044" t="inlineStr"/>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
@@ -35918,11 +36056,7 @@
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1045" t="inlineStr"/>
       <c r="L1045" t="n">
         <v>1</v>
       </c>
@@ -35955,11 +36089,7 @@
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1046" t="inlineStr"/>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -35992,11 +36122,7 @@
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1047" t="inlineStr"/>
       <c r="L1047" t="n">
         <v>1</v>
       </c>
@@ -36029,11 +36155,7 @@
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1048" t="inlineStr"/>
       <c r="L1048" t="n">
         <v>1</v>
       </c>
@@ -36066,11 +36188,7 @@
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
-      <c r="K1049" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1049" t="inlineStr"/>
       <c r="L1049" t="n">
         <v>1</v>
       </c>
@@ -36103,11 +36221,7 @@
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
-      <c r="K1050" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1050" t="inlineStr"/>
       <c r="L1050" t="n">
         <v>1</v>
       </c>
@@ -36140,11 +36254,7 @@
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
-      <c r="K1051" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1051" t="inlineStr"/>
       <c r="L1051" t="n">
         <v>1</v>
       </c>
@@ -36177,11 +36287,7 @@
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
-      <c r="K1052" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1052" t="inlineStr"/>
       <c r="L1052" t="n">
         <v>1</v>
       </c>
@@ -36214,11 +36320,7 @@
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
-      <c r="K1053" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1053" t="inlineStr"/>
       <c r="L1053" t="n">
         <v>1</v>
       </c>
@@ -36251,11 +36353,7 @@
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
-      <c r="K1054" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1054" t="inlineStr"/>
       <c r="L1054" t="n">
         <v>1</v>
       </c>
@@ -36288,11 +36386,7 @@
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
-      <c r="K1055" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1055" t="inlineStr"/>
       <c r="L1055" t="n">
         <v>1</v>
       </c>
@@ -36325,11 +36419,7 @@
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
-      <c r="K1056" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1056" t="inlineStr"/>
       <c r="L1056" t="n">
         <v>1</v>
       </c>
@@ -36362,11 +36452,7 @@
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
-      <c r="K1057" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1057" t="inlineStr"/>
       <c r="L1057" t="n">
         <v>1</v>
       </c>
@@ -36399,11 +36485,7 @@
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
-      <c r="K1058" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1058" t="inlineStr"/>
       <c r="L1058" t="n">
         <v>1</v>
       </c>
@@ -36436,11 +36518,7 @@
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
-      <c r="K1059" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1059" t="inlineStr"/>
       <c r="L1059" t="n">
         <v>1</v>
       </c>
@@ -36473,11 +36551,7 @@
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
-      <c r="K1060" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1060" t="inlineStr"/>
       <c r="L1060" t="n">
         <v>1</v>
       </c>
@@ -36510,11 +36584,7 @@
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
-      <c r="K1061" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1061" t="inlineStr"/>
       <c r="L1061" t="n">
         <v>1</v>
       </c>
@@ -36547,11 +36617,7 @@
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
-      <c r="K1062" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1062" t="inlineStr"/>
       <c r="L1062" t="n">
         <v>1</v>
       </c>
@@ -36584,11 +36650,7 @@
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1063" t="inlineStr"/>
       <c r="L1063" t="n">
         <v>1</v>
       </c>
@@ -36621,11 +36683,7 @@
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
-      <c r="K1064" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1064" t="inlineStr"/>
       <c r="L1064" t="n">
         <v>1</v>
       </c>
@@ -36658,11 +36716,7 @@
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1065" t="inlineStr"/>
       <c r="L1065" t="n">
         <v>1</v>
       </c>
@@ -36695,11 +36749,7 @@
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1066" t="inlineStr"/>
       <c r="L1066" t="n">
         <v>1</v>
       </c>
@@ -36732,11 +36782,7 @@
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
-      <c r="K1067" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1067" t="inlineStr"/>
       <c r="L1067" t="n">
         <v>1</v>
       </c>
@@ -36769,11 +36815,7 @@
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
-      <c r="K1068" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1068" t="inlineStr"/>
       <c r="L1068" t="n">
         <v>1</v>
       </c>
@@ -36806,11 +36848,7 @@
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
-      <c r="K1069" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1069" t="inlineStr"/>
       <c r="L1069" t="n">
         <v>1</v>
       </c>
@@ -36843,11 +36881,7 @@
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
-      <c r="K1070" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1070" t="inlineStr"/>
       <c r="L1070" t="n">
         <v>1</v>
       </c>
@@ -36880,11 +36914,7 @@
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
-      <c r="K1071" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1071" t="inlineStr"/>
       <c r="L1071" t="n">
         <v>1</v>
       </c>
@@ -36917,11 +36947,7 @@
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
-      <c r="K1072" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1072" t="inlineStr"/>
       <c r="L1072" t="n">
         <v>1</v>
       </c>
@@ -36954,11 +36980,7 @@
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
-      <c r="K1073" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1073" t="inlineStr"/>
       <c r="L1073" t="n">
         <v>1</v>
       </c>
@@ -36991,11 +37013,7 @@
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
-      <c r="K1074" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1074" t="inlineStr"/>
       <c r="L1074" t="n">
         <v>1</v>
       </c>
@@ -37028,11 +37046,7 @@
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
-      <c r="K1075" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1075" t="inlineStr"/>
       <c r="L1075" t="n">
         <v>1</v>
       </c>
@@ -37065,11 +37079,7 @@
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
-      <c r="K1076" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1076" t="inlineStr"/>
       <c r="L1076" t="n">
         <v>1</v>
       </c>
@@ -37102,11 +37112,7 @@
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
-      <c r="K1077" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1077" t="inlineStr"/>
       <c r="L1077" t="n">
         <v>1</v>
       </c>
@@ -37139,11 +37145,7 @@
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
-      <c r="K1078" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1078" t="inlineStr"/>
       <c r="L1078" t="n">
         <v>1</v>
       </c>
@@ -37176,11 +37178,7 @@
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
-      <c r="K1079" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1079" t="inlineStr"/>
       <c r="L1079" t="n">
         <v>1</v>
       </c>
@@ -37213,11 +37211,7 @@
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
-      <c r="K1080" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1080" t="inlineStr"/>
       <c r="L1080" t="n">
         <v>1</v>
       </c>
@@ -37250,11 +37244,7 @@
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
-      <c r="K1081" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1081" t="inlineStr"/>
       <c r="L1081" t="n">
         <v>1</v>
       </c>
@@ -37287,11 +37277,7 @@
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
-      <c r="K1082" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1082" t="inlineStr"/>
       <c r="L1082" t="n">
         <v>1</v>
       </c>
@@ -37324,11 +37310,7 @@
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
-      <c r="K1083" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1083" t="inlineStr"/>
       <c r="L1083" t="n">
         <v>1</v>
       </c>
@@ -37361,11 +37343,7 @@
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
-      <c r="K1084" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1084" t="inlineStr"/>
       <c r="L1084" t="n">
         <v>1</v>
       </c>
@@ -37398,11 +37376,7 @@
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
-      <c r="K1085" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1085" t="inlineStr"/>
       <c r="L1085" t="n">
         <v>1</v>
       </c>
@@ -37435,11 +37409,7 @@
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
-      <c r="K1086" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1086" t="inlineStr"/>
       <c r="L1086" t="n">
         <v>1</v>
       </c>
@@ -37472,11 +37442,7 @@
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
-      <c r="K1087" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1087" t="inlineStr"/>
       <c r="L1087" t="n">
         <v>1</v>
       </c>
@@ -37509,11 +37475,7 @@
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
-      <c r="K1088" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1088" t="inlineStr"/>
       <c r="L1088" t="n">
         <v>1</v>
       </c>
@@ -37546,11 +37508,7 @@
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
-      <c r="K1089" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1089" t="inlineStr"/>
       <c r="L1089" t="n">
         <v>1</v>
       </c>
@@ -37583,11 +37541,7 @@
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
-      <c r="K1090" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1090" t="inlineStr"/>
       <c r="L1090" t="n">
         <v>1</v>
       </c>
@@ -37620,11 +37574,7 @@
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
-      <c r="K1091" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1091" t="inlineStr"/>
       <c r="L1091" t="n">
         <v>1</v>
       </c>
@@ -37657,11 +37607,7 @@
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
-      <c r="K1092" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1092" t="inlineStr"/>
       <c r="L1092" t="n">
         <v>1</v>
       </c>
@@ -37694,11 +37640,7 @@
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
-      <c r="K1093" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1093" t="inlineStr"/>
       <c r="L1093" t="n">
         <v>1</v>
       </c>
@@ -37731,11 +37673,7 @@
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
-      <c r="K1094" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1094" t="inlineStr"/>
       <c r="L1094" t="n">
         <v>1</v>
       </c>
@@ -37768,11 +37706,7 @@
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
-      <c r="K1095" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1095" t="inlineStr"/>
       <c r="L1095" t="n">
         <v>1</v>
       </c>
@@ -37805,11 +37739,7 @@
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
-      <c r="K1096" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1096" t="inlineStr"/>
       <c r="L1096" t="n">
         <v>1</v>
       </c>
@@ -37842,11 +37772,7 @@
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
-      <c r="K1097" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1097" t="inlineStr"/>
       <c r="L1097" t="n">
         <v>1</v>
       </c>
@@ -37879,11 +37805,7 @@
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
-      <c r="K1098" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1098" t="inlineStr"/>
       <c r="L1098" t="n">
         <v>1</v>
       </c>
@@ -37916,11 +37838,7 @@
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
-      <c r="K1099" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1099" t="inlineStr"/>
       <c r="L1099" t="n">
         <v>1</v>
       </c>
@@ -37953,11 +37871,7 @@
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
-      <c r="K1100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1100" t="inlineStr"/>
       <c r="L1100" t="n">
         <v>1</v>
       </c>
@@ -37990,11 +37904,7 @@
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
-      <c r="K1101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1101" t="inlineStr"/>
       <c r="L1101" t="n">
         <v>1</v>
       </c>
@@ -38027,11 +37937,7 @@
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
-      <c r="K1102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1102" t="inlineStr"/>
       <c r="L1102" t="n">
         <v>1</v>
       </c>
@@ -38064,11 +37970,7 @@
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
-      <c r="K1103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1103" t="inlineStr"/>
       <c r="L1103" t="n">
         <v>1</v>
       </c>
@@ -38101,11 +38003,7 @@
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
-      <c r="K1104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1104" t="inlineStr"/>
       <c r="L1104" t="n">
         <v>1</v>
       </c>
@@ -38138,11 +38036,7 @@
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
-      <c r="K1105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1105" t="inlineStr"/>
       <c r="L1105" t="n">
         <v>1</v>
       </c>
@@ -38175,11 +38069,7 @@
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
-      <c r="K1106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1106" t="inlineStr"/>
       <c r="L1106" t="n">
         <v>1</v>
       </c>
@@ -38212,11 +38102,7 @@
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
-      <c r="K1107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1107" t="inlineStr"/>
       <c r="L1107" t="n">
         <v>1</v>
       </c>
@@ -38249,11 +38135,7 @@
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
-      <c r="K1108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1108" t="inlineStr"/>
       <c r="L1108" t="n">
         <v>1</v>
       </c>
@@ -38286,11 +38168,7 @@
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
-      <c r="K1109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1109" t="inlineStr"/>
       <c r="L1109" t="n">
         <v>1</v>
       </c>
@@ -38323,11 +38201,7 @@
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
-      <c r="K1110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1110" t="inlineStr"/>
       <c r="L1110" t="n">
         <v>1</v>
       </c>
@@ -38360,11 +38234,7 @@
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
-      <c r="K1111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1111" t="inlineStr"/>
       <c r="L1111" t="n">
         <v>1</v>
       </c>
@@ -38397,11 +38267,7 @@
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
-      <c r="K1112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1112" t="inlineStr"/>
       <c r="L1112" t="n">
         <v>1</v>
       </c>
@@ -38434,11 +38300,7 @@
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
-      <c r="K1113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1113" t="inlineStr"/>
       <c r="L1113" t="n">
         <v>1</v>
       </c>
@@ -38471,11 +38333,7 @@
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
-      <c r="K1114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1114" t="inlineStr"/>
       <c r="L1114" t="n">
         <v>1</v>
       </c>
@@ -38508,11 +38366,7 @@
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
-      <c r="K1115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1115" t="inlineStr"/>
       <c r="L1115" t="n">
         <v>1</v>
       </c>
@@ -38545,11 +38399,7 @@
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
-      <c r="K1116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1116" t="inlineStr"/>
       <c r="L1116" t="n">
         <v>1</v>
       </c>
@@ -38582,11 +38432,7 @@
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
-      <c r="K1117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1117" t="inlineStr"/>
       <c r="L1117" t="n">
         <v>1</v>
       </c>
@@ -38619,11 +38465,7 @@
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
-      <c r="K1118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1118" t="inlineStr"/>
       <c r="L1118" t="n">
         <v>1</v>
       </c>
@@ -38656,11 +38498,7 @@
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
-      <c r="K1119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1119" t="inlineStr"/>
       <c r="L1119" t="n">
         <v>1</v>
       </c>
@@ -38693,11 +38531,7 @@
       </c>
       <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="inlineStr"/>
-      <c r="K1120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1120" t="inlineStr"/>
       <c r="L1120" t="n">
         <v>1</v>
       </c>
@@ -38730,11 +38564,7 @@
       </c>
       <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="inlineStr"/>
-      <c r="K1121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1121" t="inlineStr"/>
       <c r="L1121" t="n">
         <v>1</v>
       </c>
@@ -38767,11 +38597,7 @@
       </c>
       <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="inlineStr"/>
-      <c r="K1122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1122" t="inlineStr"/>
       <c r="L1122" t="n">
         <v>1</v>
       </c>
@@ -38804,11 +38630,7 @@
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="inlineStr"/>
-      <c r="K1123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1123" t="inlineStr"/>
       <c r="L1123" t="n">
         <v>1</v>
       </c>
@@ -38841,11 +38663,7 @@
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="inlineStr"/>
-      <c r="K1124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1124" t="inlineStr"/>
       <c r="L1124" t="n">
         <v>1</v>
       </c>
@@ -38878,11 +38696,7 @@
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
-      <c r="K1125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1125" t="inlineStr"/>
       <c r="L1125" t="n">
         <v>1</v>
       </c>
@@ -38915,11 +38729,7 @@
       </c>
       <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="inlineStr"/>
-      <c r="K1126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1126" t="inlineStr"/>
       <c r="L1126" t="n">
         <v>1</v>
       </c>
@@ -38952,11 +38762,7 @@
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
-      <c r="K1127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1127" t="inlineStr"/>
       <c r="L1127" t="n">
         <v>1</v>
       </c>
@@ -38989,11 +38795,7 @@
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
-      <c r="K1128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1128" t="inlineStr"/>
       <c r="L1128" t="n">
         <v>1</v>
       </c>
@@ -39026,11 +38828,7 @@
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
-      <c r="K1129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1129" t="inlineStr"/>
       <c r="L1129" t="n">
         <v>1</v>
       </c>
@@ -39063,11 +38861,7 @@
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
-      <c r="K1130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1130" t="inlineStr"/>
       <c r="L1130" t="n">
         <v>1</v>
       </c>
@@ -39100,11 +38894,7 @@
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
-      <c r="K1131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1131" t="inlineStr"/>
       <c r="L1131" t="n">
         <v>1</v>
       </c>
@@ -39137,11 +38927,7 @@
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
-      <c r="K1132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1132" t="inlineStr"/>
       <c r="L1132" t="n">
         <v>1</v>
       </c>
@@ -39174,11 +38960,7 @@
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
-      <c r="K1133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1133" t="inlineStr"/>
       <c r="L1133" t="n">
         <v>1</v>
       </c>
@@ -39211,11 +38993,7 @@
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
-      <c r="K1134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1134" t="inlineStr"/>
       <c r="L1134" t="n">
         <v>1</v>
       </c>
@@ -39248,11 +39026,7 @@
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
-      <c r="K1135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1135" t="inlineStr"/>
       <c r="L1135" t="n">
         <v>1</v>
       </c>
@@ -39285,11 +39059,7 @@
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
-      <c r="K1136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1136" t="inlineStr"/>
       <c r="L1136" t="n">
         <v>1</v>
       </c>
@@ -39322,11 +39092,7 @@
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
-      <c r="K1137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1137" t="inlineStr"/>
       <c r="L1137" t="n">
         <v>1</v>
       </c>
@@ -39359,11 +39125,7 @@
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
-      <c r="K1138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1138" t="inlineStr"/>
       <c r="L1138" t="n">
         <v>1</v>
       </c>
@@ -39396,11 +39158,7 @@
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
-      <c r="K1139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1139" t="inlineStr"/>
       <c r="L1139" t="n">
         <v>1</v>
       </c>
@@ -39433,11 +39191,7 @@
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
-      <c r="K1140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1140" t="inlineStr"/>
       <c r="L1140" t="n">
         <v>1</v>
       </c>
@@ -39470,11 +39224,7 @@
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="inlineStr"/>
-      <c r="K1141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1141" t="inlineStr"/>
       <c r="L1141" t="n">
         <v>1</v>
       </c>
@@ -39507,11 +39257,7 @@
       </c>
       <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="inlineStr"/>
-      <c r="K1142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1142" t="inlineStr"/>
       <c r="L1142" t="n">
         <v>1</v>
       </c>
@@ -39544,11 +39290,7 @@
       </c>
       <c r="I1143" t="inlineStr"/>
       <c r="J1143" t="inlineStr"/>
-      <c r="K1143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1143" t="inlineStr"/>
       <c r="L1143" t="n">
         <v>1</v>
       </c>
@@ -39581,11 +39323,7 @@
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="inlineStr"/>
-      <c r="K1144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1144" t="inlineStr"/>
       <c r="L1144" t="n">
         <v>1</v>
       </c>
@@ -39618,11 +39356,7 @@
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="inlineStr"/>
-      <c r="K1145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1145" t="inlineStr"/>
       <c r="L1145" t="n">
         <v>1</v>
       </c>
@@ -39655,11 +39389,7 @@
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
-      <c r="K1146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1146" t="inlineStr"/>
       <c r="L1146" t="n">
         <v>1</v>
       </c>
@@ -39692,11 +39422,7 @@
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="inlineStr"/>
-      <c r="K1147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1147" t="inlineStr"/>
       <c r="L1147" t="n">
         <v>1</v>
       </c>
@@ -39729,11 +39455,7 @@
       </c>
       <c r="I1148" t="inlineStr"/>
       <c r="J1148" t="inlineStr"/>
-      <c r="K1148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1148" t="inlineStr"/>
       <c r="L1148" t="n">
         <v>1</v>
       </c>
@@ -39766,11 +39488,7 @@
       </c>
       <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="inlineStr"/>
-      <c r="K1149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1149" t="inlineStr"/>
       <c r="L1149" t="n">
         <v>1</v>
       </c>
@@ -39803,11 +39521,7 @@
       </c>
       <c r="I1150" t="inlineStr"/>
       <c r="J1150" t="inlineStr"/>
-      <c r="K1150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1150" t="inlineStr"/>
       <c r="L1150" t="n">
         <v>1</v>
       </c>
@@ -39840,11 +39554,7 @@
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="inlineStr"/>
-      <c r="K1151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1151" t="inlineStr"/>
       <c r="L1151" t="n">
         <v>1</v>
       </c>
@@ -39877,11 +39587,7 @@
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="inlineStr"/>
-      <c r="K1152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1152" t="inlineStr"/>
       <c r="L1152" t="n">
         <v>1</v>
       </c>
@@ -39914,11 +39620,7 @@
       </c>
       <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="inlineStr"/>
-      <c r="K1153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1153" t="inlineStr"/>
       <c r="L1153" t="n">
         <v>1</v>
       </c>
@@ -39951,11 +39653,7 @@
       </c>
       <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="inlineStr"/>
-      <c r="K1154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1154" t="inlineStr"/>
       <c r="L1154" t="n">
         <v>1</v>
       </c>
@@ -39988,11 +39686,7 @@
       </c>
       <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="inlineStr"/>
-      <c r="K1155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1155" t="inlineStr"/>
       <c r="L1155" t="n">
         <v>1</v>
       </c>
@@ -40021,16 +39715,14 @@
         <v>-336141.6937253699</v>
       </c>
       <c r="H1156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="inlineStr"/>
-      <c r="K1156" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L1156" t="inlineStr"/>
+      <c r="K1156" t="inlineStr"/>
+      <c r="L1156" t="n">
+        <v>1</v>
+      </c>
       <c r="M1156" t="inlineStr"/>
     </row>
     <row r="1157">
@@ -40056,7 +39748,7 @@
         <v>-340486.6959253699</v>
       </c>
       <c r="H1157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
@@ -40089,7 +39781,7 @@
         <v>-336702.4151253699</v>
       </c>
       <c r="H1158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
@@ -40122,7 +39814,7 @@
         <v>-334159.4593253699</v>
       </c>
       <c r="H1159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="inlineStr"/>
@@ -40287,7 +39979,7 @@
         <v>-321321.1576253699</v>
       </c>
       <c r="H1164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="inlineStr"/>
@@ -40320,7 +40012,7 @@
         <v>-315306.9355253699</v>
       </c>
       <c r="H1165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="inlineStr"/>
@@ -40353,7 +40045,7 @@
         <v>-320294.1973253699</v>
       </c>
       <c r="H1166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="inlineStr"/>
@@ -40551,7 +40243,7 @@
         <v>-328789.7829150298</v>
       </c>
       <c r="H1172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1172" t="inlineStr"/>
       <c r="J1172" t="inlineStr"/>
@@ -40584,7 +40276,7 @@
         <v>-341809.6565150298</v>
       </c>
       <c r="H1173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1173" t="inlineStr"/>
       <c r="J1173" t="inlineStr"/>
@@ -44390,6 +44082,6 @@
       <c r="M1288" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest LUNA.xlsx
+++ b/BackTest/2020-01-15 BackTest LUNA.xlsx
@@ -3520,7 +3520,7 @@
         <v>109482.58196011</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -26719,11 +26719,17 @@
         <v>-370906.74147806</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
-      </c>
-      <c r="I798" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I798" t="n">
+        <v>221</v>
+      </c>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -26752,11 +26758,17 @@
         <v>-367878.95513488</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
-      </c>
-      <c r="I799" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I799" t="n">
+        <v>221</v>
+      </c>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -26785,11 +26797,17 @@
         <v>-370813.41563488</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
-      </c>
-      <c r="I800" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I800" t="n">
+        <v>222.3</v>
+      </c>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -26822,7 +26840,11 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -26855,7 +26877,11 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -26888,7 +26914,11 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -26921,7 +26951,11 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -26954,7 +26988,11 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -26987,7 +27025,11 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27020,7 +27062,11 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27053,7 +27099,11 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27086,7 +27136,11 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -27119,7 +27173,11 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -27152,7 +27210,11 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -27185,7 +27247,11 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -27218,7 +27284,11 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -27251,7 +27321,11 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -27284,7 +27358,11 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -27317,7 +27395,11 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -27350,7 +27432,11 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -27383,7 +27469,11 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -27416,7 +27506,11 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -27449,7 +27543,11 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -27482,7 +27580,11 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -27515,7 +27617,11 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -27548,7 +27654,11 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -27581,7 +27691,11 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -27614,7 +27728,11 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -27647,7 +27765,11 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -27680,7 +27802,11 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -27713,7 +27839,11 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -27746,7 +27876,11 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -27779,7 +27913,11 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -27812,7 +27950,11 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -27845,7 +27987,11 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -27878,7 +28024,11 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -27911,7 +28061,11 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -27944,7 +28098,11 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -27977,7 +28135,11 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28010,7 +28172,11 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28043,7 +28209,11 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28076,7 +28246,11 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28109,7 +28283,11 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28142,7 +28320,11 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28175,7 +28357,11 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28208,7 +28394,11 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28241,7 +28431,11 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28274,7 +28468,11 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28307,7 +28505,11 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28340,7 +28542,11 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -28373,7 +28579,11 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28406,7 +28616,11 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28439,7 +28653,11 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -28472,7 +28690,11 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -28505,7 +28727,11 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -28538,7 +28764,11 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -28571,7 +28801,11 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -28600,15 +28834,13 @@
         <v>-396118.8039246401</v>
       </c>
       <c r="H855" t="n">
-        <v>1</v>
-      </c>
-      <c r="I855" t="n">
-        <v>221.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L855" t="n">
@@ -28639,11 +28871,9 @@
         <v>-402113.3118246401</v>
       </c>
       <c r="H856" t="n">
-        <v>1</v>
-      </c>
-      <c r="I856" t="n">
-        <v>222.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr">
         <is>
@@ -28678,11 +28908,9 @@
         <v>-399036.0350246402</v>
       </c>
       <c r="H857" t="n">
-        <v>1</v>
-      </c>
-      <c r="I857" t="n">
-        <v>222.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr">
         <is>
@@ -28717,11 +28945,9 @@
         <v>-399036.0350246402</v>
       </c>
       <c r="H858" t="n">
-        <v>1</v>
-      </c>
-      <c r="I858" t="n">
-        <v>222.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr">
         <is>
@@ -28756,11 +28982,9 @@
         <v>-402816.2036246401</v>
       </c>
       <c r="H859" t="n">
-        <v>1</v>
-      </c>
-      <c r="I859" t="n">
-        <v>222.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr">
         <is>
@@ -29017,11 +29241,9 @@
         <v>-401800.4149246402</v>
       </c>
       <c r="H866" t="n">
-        <v>1</v>
-      </c>
-      <c r="I866" t="n">
-        <v>221.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
@@ -29167,11 +29389,9 @@
         <v>-419068.4898246402</v>
       </c>
       <c r="H870" t="n">
-        <v>1</v>
-      </c>
-      <c r="I870" t="n">
-        <v>222.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr">
         <is>
@@ -29206,11 +29426,9 @@
         <v>-423169.4054246402</v>
       </c>
       <c r="H871" t="n">
-        <v>1</v>
-      </c>
-      <c r="I871" t="n">
-        <v>222.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr">
         <is>
@@ -29245,11 +29463,9 @@
         <v>-428739.8125246402</v>
       </c>
       <c r="H872" t="n">
-        <v>1</v>
-      </c>
-      <c r="I872" t="n">
-        <v>222</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr">
         <is>
@@ -29284,11 +29500,9 @@
         <v>-449544.1222246402</v>
       </c>
       <c r="H873" t="n">
-        <v>1</v>
-      </c>
-      <c r="I873" t="n">
-        <v>221.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr">
         <is>
@@ -29323,11 +29537,9 @@
         <v>-433757.3015246402</v>
       </c>
       <c r="H874" t="n">
-        <v>1</v>
-      </c>
-      <c r="I874" t="n">
-        <v>221</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr">
         <is>
@@ -29362,11 +29574,9 @@
         <v>-433757.3015246402</v>
       </c>
       <c r="H875" t="n">
-        <v>1</v>
-      </c>
-      <c r="I875" t="n">
-        <v>221.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
       <c r="K875" t="inlineStr">
         <is>
@@ -30130,9 +30340,11 @@
         <v>-433772.1735246401</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
-      </c>
-      <c r="I895" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I895" t="n">
+        <v>220.8</v>
+      </c>
       <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr">
         <is>
@@ -30167,9 +30379,11 @@
         <v>-437692.4542246401</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
-      </c>
-      <c r="I896" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I896" t="n">
+        <v>221.3</v>
+      </c>
       <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr">
         <is>
@@ -30204,9 +30418,11 @@
         <v>-432637.9572246401</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
-      </c>
-      <c r="I897" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I897" t="n">
+        <v>221.1</v>
+      </c>
       <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
@@ -30241,9 +30457,11 @@
         <v>-445907.4056246401</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
-      </c>
-      <c r="I898" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I898" t="n">
+        <v>221.3</v>
+      </c>
       <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
@@ -30278,9 +30496,11 @@
         <v>-436359.6296246401</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
-      </c>
-      <c r="I899" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I899" t="n">
+        <v>221</v>
+      </c>
       <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
@@ -30315,9 +30535,11 @@
         <v>-436359.6296246401</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
-      </c>
-      <c r="I900" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I900" t="n">
+        <v>221.3</v>
+      </c>
       <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
@@ -30352,9 +30574,11 @@
         <v>-441794.3495246401</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
-      </c>
-      <c r="I901" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I901" t="n">
+        <v>221.3</v>
+      </c>
       <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr">
         <is>
@@ -30389,9 +30613,11 @@
         <v>-438836.0562246401</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
-      </c>
-      <c r="I902" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I902" t="n">
+        <v>221.1</v>
+      </c>
       <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
@@ -30426,9 +30652,11 @@
         <v>-442911.3457246401</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
-      </c>
-      <c r="I903" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I903" t="n">
+        <v>221.7</v>
+      </c>
       <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
@@ -32944,16 +33172,18 @@
         <v>-242320.39462464</v>
       </c>
       <c r="H971" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
       <c r="K971" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L971" t="inlineStr"/>
+      <c r="L971" t="n">
+        <v>1</v>
+      </c>
       <c r="M971" t="inlineStr"/>
     </row>
     <row r="972">
@@ -32979,11 +33209,15 @@
         <v>-248668.18972464</v>
       </c>
       <c r="H972" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr"/>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -33012,11 +33246,15 @@
         <v>-252417.80652464</v>
       </c>
       <c r="H973" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr"/>
+      <c r="K973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -33049,10 +33287,12 @@
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr"/>
-      <c r="L974" t="n">
-        <v>1</v>
-      </c>
+      <c r="K974" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L974" t="inlineStr"/>
       <c r="M974" t="inlineStr"/>
     </row>
     <row r="975">
@@ -33078,7 +33318,7 @@
         <v>-237774.82252464</v>
       </c>
       <c r="H975" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -33144,7 +33384,7 @@
         <v>-248463.04612464</v>
       </c>
       <c r="H977" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -33177,7 +33417,7 @@
         <v>-258174.42982464</v>
       </c>
       <c r="H978" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -33210,7 +33450,7 @@
         <v>-264825.26892464</v>
       </c>
       <c r="H979" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -33243,7 +33483,7 @@
         <v>-259380.96582464</v>
       </c>
       <c r="H980" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -33276,7 +33516,7 @@
         <v>-259380.96582464</v>
       </c>
       <c r="H981" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -33309,7 +33549,7 @@
         <v>-266314.22102464</v>
       </c>
       <c r="H982" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -33342,7 +33582,7 @@
         <v>-271365.38342464</v>
       </c>
       <c r="H983" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -33375,7 +33615,7 @@
         <v>-274135.45162464</v>
       </c>
       <c r="H984" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -33408,7 +33648,7 @@
         <v>-269303.93552464</v>
       </c>
       <c r="H985" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -33441,7 +33681,7 @@
         <v>-273614.05342464</v>
       </c>
       <c r="H986" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -33474,7 +33714,7 @@
         <v>-265598.04482464</v>
       </c>
       <c r="H987" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -33507,7 +33747,7 @@
         <v>-207603.69452464</v>
       </c>
       <c r="H988" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -33672,7 +33912,7 @@
         <v>-151037.94702464</v>
       </c>
       <c r="H993" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -33705,7 +33945,7 @@
         <v>-158680.43662464</v>
       </c>
       <c r="H994" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -33738,7 +33978,7 @@
         <v>-170278.16952464</v>
       </c>
       <c r="H995" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -33771,7 +34011,7 @@
         <v>-178629.89692464</v>
       </c>
       <c r="H996" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -33804,7 +34044,7 @@
         <v>-175855.03292464</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -33837,7 +34077,7 @@
         <v>-201318.67702464</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -33870,7 +34110,7 @@
         <v>-207203.13192464</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -33936,7 +34176,7 @@
         <v>-223059.81802464</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -33969,7 +34209,7 @@
         <v>-217240.51512464</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -34002,7 +34242,7 @@
         <v>-232587.10422464</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -36609,7 +36849,7 @@
         <v>-339267.75673232</v>
       </c>
       <c r="H1082" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
@@ -36642,7 +36882,7 @@
         <v>-335363.46693232</v>
       </c>
       <c r="H1083" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
@@ -36675,7 +36915,7 @@
         <v>-340333.30223232</v>
       </c>
       <c r="H1084" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
@@ -39414,7 +39654,7 @@
         <v>-307707.0781253699</v>
       </c>
       <c r="H1167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="inlineStr"/>
@@ -39447,7 +39687,7 @@
         <v>-307707.0781253699</v>
       </c>
       <c r="H1168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1168" t="inlineStr"/>
       <c r="J1168" t="inlineStr"/>
@@ -39480,7 +39720,7 @@
         <v>-311055.0868253699</v>
       </c>
       <c r="H1169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="inlineStr"/>
@@ -40206,7 +40446,7 @@
         <v>-345558.9098150298</v>
       </c>
       <c r="H1191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1191" t="inlineStr"/>
       <c r="J1191" t="inlineStr"/>
@@ -40239,7 +40479,7 @@
         <v>-345558.9098150298</v>
       </c>
       <c r="H1192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1192" t="inlineStr"/>
       <c r="J1192" t="inlineStr"/>
@@ -40272,7 +40512,7 @@
         <v>-341942.1096150298</v>
       </c>
       <c r="H1193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1193" t="inlineStr"/>
       <c r="J1193" t="inlineStr"/>
@@ -40305,7 +40545,7 @@
         <v>-347364.8627150298</v>
       </c>
       <c r="H1194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1194" t="inlineStr"/>
       <c r="J1194" t="inlineStr"/>
@@ -40338,7 +40578,7 @@
         <v>-353424.4659150298</v>
       </c>
       <c r="H1195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1195" t="inlineStr"/>
       <c r="J1195" t="inlineStr"/>
@@ -40371,7 +40611,7 @@
         <v>-353424.4659150298</v>
       </c>
       <c r="H1196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1196" t="inlineStr"/>
       <c r="J1196" t="inlineStr"/>
@@ -40470,7 +40710,7 @@
         <v>-355465.2672150298</v>
       </c>
       <c r="H1199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="inlineStr"/>
@@ -41526,17 +41766,11 @@
         <v>-421753.6931150298</v>
       </c>
       <c r="H1231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1231" t="n">
-        <v>224.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1231" t="inlineStr"/>
       <c r="J1231" t="inlineStr"/>
-      <c r="K1231" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K1231" t="inlineStr"/>
       <c r="L1231" t="n">
         <v>1</v>
       </c>
@@ -41565,17 +41799,11 @@
         <v>-415979.4766150299</v>
       </c>
       <c r="H1232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1232" t="n">
-        <v>224.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1232" t="inlineStr"/>
       <c r="J1232" t="inlineStr"/>
-      <c r="K1232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1232" t="inlineStr"/>
       <c r="L1232" t="n">
         <v>1</v>
       </c>
@@ -41604,17 +41832,11 @@
         <v>-418752.4986150299</v>
       </c>
       <c r="H1233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1233" t="n">
-        <v>225.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="inlineStr"/>
-      <c r="K1233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1233" t="inlineStr"/>
       <c r="L1233" t="n">
         <v>1</v>
       </c>
@@ -41643,17 +41865,11 @@
         <v>-427102.6312150299</v>
       </c>
       <c r="H1234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1234" t="n">
-        <v>225.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1234" t="inlineStr"/>
       <c r="J1234" t="inlineStr"/>
-      <c r="K1234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1234" t="inlineStr"/>
       <c r="L1234" t="n">
         <v>1</v>
       </c>
@@ -41682,17 +41898,11 @@
         <v>-422764.7164150298</v>
       </c>
       <c r="H1235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1235" t="n">
-        <v>224.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1235" t="inlineStr"/>
       <c r="J1235" t="inlineStr"/>
-      <c r="K1235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1235" t="inlineStr"/>
       <c r="L1235" t="n">
         <v>1</v>
       </c>
@@ -41721,17 +41931,11 @@
         <v>-422764.7164150298</v>
       </c>
       <c r="H1236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1236" t="n">
-        <v>225.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1236" t="inlineStr"/>
       <c r="J1236" t="inlineStr"/>
-      <c r="K1236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1236" t="inlineStr"/>
       <c r="L1236" t="n">
         <v>1</v>
       </c>
@@ -41760,17 +41964,11 @@
         <v>-427003.4366150298</v>
       </c>
       <c r="H1237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1237" t="n">
-        <v>225.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1237" t="inlineStr"/>
       <c r="J1237" t="inlineStr"/>
-      <c r="K1237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1237" t="inlineStr"/>
       <c r="L1237" t="n">
         <v>1</v>
       </c>
@@ -41799,17 +41997,11 @@
         <v>-420580.4293150298</v>
       </c>
       <c r="H1238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1238" t="n">
-        <v>225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1238" t="inlineStr"/>
       <c r="J1238" t="inlineStr"/>
-      <c r="K1238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1238" t="inlineStr"/>
       <c r="L1238" t="n">
         <v>1</v>
       </c>
@@ -41842,11 +42034,7 @@
       </c>
       <c r="I1239" t="inlineStr"/>
       <c r="J1239" t="inlineStr"/>
-      <c r="K1239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1239" t="inlineStr"/>
       <c r="L1239" t="n">
         <v>1</v>
       </c>
@@ -41875,17 +42063,11 @@
         <v>-418416.8065150298</v>
       </c>
       <c r="H1240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1240" t="n">
-        <v>225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1240" t="inlineStr"/>
       <c r="J1240" t="inlineStr"/>
-      <c r="K1240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1240" t="inlineStr"/>
       <c r="L1240" t="n">
         <v>1</v>
       </c>
@@ -41914,17 +42096,11 @@
         <v>-521693.3925150298</v>
       </c>
       <c r="H1241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1241" t="n">
-        <v>225.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1241" t="inlineStr"/>
       <c r="J1241" t="inlineStr"/>
-      <c r="K1241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1241" t="inlineStr"/>
       <c r="L1241" t="n">
         <v>1</v>
       </c>
@@ -41957,11 +42133,7 @@
       </c>
       <c r="I1242" t="inlineStr"/>
       <c r="J1242" t="inlineStr"/>
-      <c r="K1242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1242" t="inlineStr"/>
       <c r="L1242" t="n">
         <v>1</v>
       </c>
@@ -41994,11 +42166,7 @@
       </c>
       <c r="I1243" t="inlineStr"/>
       <c r="J1243" t="inlineStr"/>
-      <c r="K1243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1243" t="inlineStr"/>
       <c r="L1243" t="n">
         <v>1</v>
       </c>
@@ -42031,11 +42199,7 @@
       </c>
       <c r="I1244" t="inlineStr"/>
       <c r="J1244" t="inlineStr"/>
-      <c r="K1244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1244" t="inlineStr"/>
       <c r="L1244" t="n">
         <v>1</v>
       </c>
@@ -42068,11 +42232,7 @@
       </c>
       <c r="I1245" t="inlineStr"/>
       <c r="J1245" t="inlineStr"/>
-      <c r="K1245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1245" t="inlineStr"/>
       <c r="L1245" t="n">
         <v>1</v>
       </c>
@@ -42105,11 +42265,7 @@
       </c>
       <c r="I1246" t="inlineStr"/>
       <c r="J1246" t="inlineStr"/>
-      <c r="K1246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1246" t="inlineStr"/>
       <c r="L1246" t="n">
         <v>1</v>
       </c>
@@ -42142,11 +42298,7 @@
       </c>
       <c r="I1247" t="inlineStr"/>
       <c r="J1247" t="inlineStr"/>
-      <c r="K1247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1247" t="inlineStr"/>
       <c r="L1247" t="n">
         <v>1</v>
       </c>
@@ -42179,11 +42331,7 @@
       </c>
       <c r="I1248" t="inlineStr"/>
       <c r="J1248" t="inlineStr"/>
-      <c r="K1248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1248" t="inlineStr"/>
       <c r="L1248" t="n">
         <v>1</v>
       </c>
@@ -42216,11 +42364,7 @@
       </c>
       <c r="I1249" t="inlineStr"/>
       <c r="J1249" t="inlineStr"/>
-      <c r="K1249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1249" t="inlineStr"/>
       <c r="L1249" t="n">
         <v>1</v>
       </c>
@@ -42253,11 +42397,7 @@
       </c>
       <c r="I1250" t="inlineStr"/>
       <c r="J1250" t="inlineStr"/>
-      <c r="K1250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1250" t="inlineStr"/>
       <c r="L1250" t="n">
         <v>1</v>
       </c>
@@ -42290,11 +42430,7 @@
       </c>
       <c r="I1251" t="inlineStr"/>
       <c r="J1251" t="inlineStr"/>
-      <c r="K1251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1251" t="inlineStr"/>
       <c r="L1251" t="n">
         <v>1</v>
       </c>
@@ -42327,11 +42463,7 @@
       </c>
       <c r="I1252" t="inlineStr"/>
       <c r="J1252" t="inlineStr"/>
-      <c r="K1252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1252" t="inlineStr"/>
       <c r="L1252" t="n">
         <v>1</v>
       </c>
@@ -42364,11 +42496,7 @@
       </c>
       <c r="I1253" t="inlineStr"/>
       <c r="J1253" t="inlineStr"/>
-      <c r="K1253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1253" t="inlineStr"/>
       <c r="L1253" t="n">
         <v>1</v>
       </c>
@@ -42401,11 +42529,7 @@
       </c>
       <c r="I1254" t="inlineStr"/>
       <c r="J1254" t="inlineStr"/>
-      <c r="K1254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1254" t="inlineStr"/>
       <c r="L1254" t="n">
         <v>1</v>
       </c>
@@ -42438,11 +42562,7 @@
       </c>
       <c r="I1255" t="inlineStr"/>
       <c r="J1255" t="inlineStr"/>
-      <c r="K1255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1255" t="inlineStr"/>
       <c r="L1255" t="n">
         <v>1</v>
       </c>
@@ -42475,11 +42595,7 @@
       </c>
       <c r="I1256" t="inlineStr"/>
       <c r="J1256" t="inlineStr"/>
-      <c r="K1256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1256" t="inlineStr"/>
       <c r="L1256" t="n">
         <v>1</v>
       </c>
@@ -42512,11 +42628,7 @@
       </c>
       <c r="I1257" t="inlineStr"/>
       <c r="J1257" t="inlineStr"/>
-      <c r="K1257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1257" t="inlineStr"/>
       <c r="L1257" t="n">
         <v>1</v>
       </c>
@@ -42549,11 +42661,7 @@
       </c>
       <c r="I1258" t="inlineStr"/>
       <c r="J1258" t="inlineStr"/>
-      <c r="K1258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1258" t="inlineStr"/>
       <c r="L1258" t="n">
         <v>1</v>
       </c>
@@ -42586,11 +42694,7 @@
       </c>
       <c r="I1259" t="inlineStr"/>
       <c r="J1259" t="inlineStr"/>
-      <c r="K1259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1259" t="inlineStr"/>
       <c r="L1259" t="n">
         <v>1</v>
       </c>
@@ -42623,11 +42727,7 @@
       </c>
       <c r="I1260" t="inlineStr"/>
       <c r="J1260" t="inlineStr"/>
-      <c r="K1260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1260" t="inlineStr"/>
       <c r="L1260" t="n">
         <v>1</v>
       </c>
@@ -42660,11 +42760,7 @@
       </c>
       <c r="I1261" t="inlineStr"/>
       <c r="J1261" t="inlineStr"/>
-      <c r="K1261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1261" t="inlineStr"/>
       <c r="L1261" t="n">
         <v>1</v>
       </c>
@@ -42697,11 +42793,7 @@
       </c>
       <c r="I1262" t="inlineStr"/>
       <c r="J1262" t="inlineStr"/>
-      <c r="K1262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1262" t="inlineStr"/>
       <c r="L1262" t="n">
         <v>1</v>
       </c>
@@ -42734,11 +42826,7 @@
       </c>
       <c r="I1263" t="inlineStr"/>
       <c r="J1263" t="inlineStr"/>
-      <c r="K1263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1263" t="inlineStr"/>
       <c r="L1263" t="n">
         <v>1</v>
       </c>
@@ -42771,11 +42859,7 @@
       </c>
       <c r="I1264" t="inlineStr"/>
       <c r="J1264" t="inlineStr"/>
-      <c r="K1264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1264" t="inlineStr"/>
       <c r="L1264" t="n">
         <v>1</v>
       </c>
@@ -42808,11 +42892,7 @@
       </c>
       <c r="I1265" t="inlineStr"/>
       <c r="J1265" t="inlineStr"/>
-      <c r="K1265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1265" t="inlineStr"/>
       <c r="L1265" t="n">
         <v>1</v>
       </c>
@@ -42845,11 +42925,7 @@
       </c>
       <c r="I1266" t="inlineStr"/>
       <c r="J1266" t="inlineStr"/>
-      <c r="K1266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1266" t="inlineStr"/>
       <c r="L1266" t="n">
         <v>1</v>
       </c>
@@ -42882,11 +42958,7 @@
       </c>
       <c r="I1267" t="inlineStr"/>
       <c r="J1267" t="inlineStr"/>
-      <c r="K1267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1267" t="inlineStr"/>
       <c r="L1267" t="n">
         <v>1</v>
       </c>
@@ -42919,11 +42991,7 @@
       </c>
       <c r="I1268" t="inlineStr"/>
       <c r="J1268" t="inlineStr"/>
-      <c r="K1268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1268" t="inlineStr"/>
       <c r="L1268" t="n">
         <v>1</v>
       </c>
@@ -42956,11 +43024,7 @@
       </c>
       <c r="I1269" t="inlineStr"/>
       <c r="J1269" t="inlineStr"/>
-      <c r="K1269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1269" t="inlineStr"/>
       <c r="L1269" t="n">
         <v>1</v>
       </c>
@@ -42993,11 +43057,7 @@
       </c>
       <c r="I1270" t="inlineStr"/>
       <c r="J1270" t="inlineStr"/>
-      <c r="K1270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1270" t="inlineStr"/>
       <c r="L1270" t="n">
         <v>1</v>
       </c>
@@ -43030,11 +43090,7 @@
       </c>
       <c r="I1271" t="inlineStr"/>
       <c r="J1271" t="inlineStr"/>
-      <c r="K1271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1271" t="inlineStr"/>
       <c r="L1271" t="n">
         <v>1</v>
       </c>
@@ -43067,11 +43123,7 @@
       </c>
       <c r="I1272" t="inlineStr"/>
       <c r="J1272" t="inlineStr"/>
-      <c r="K1272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1272" t="inlineStr"/>
       <c r="L1272" t="n">
         <v>1</v>
       </c>
@@ -43104,11 +43156,7 @@
       </c>
       <c r="I1273" t="inlineStr"/>
       <c r="J1273" t="inlineStr"/>
-      <c r="K1273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1273" t="inlineStr"/>
       <c r="L1273" t="n">
         <v>1</v>
       </c>
@@ -43141,11 +43189,7 @@
       </c>
       <c r="I1274" t="inlineStr"/>
       <c r="J1274" t="inlineStr"/>
-      <c r="K1274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1274" t="inlineStr"/>
       <c r="L1274" t="n">
         <v>1</v>
       </c>
@@ -43178,11 +43222,7 @@
       </c>
       <c r="I1275" t="inlineStr"/>
       <c r="J1275" t="inlineStr"/>
-      <c r="K1275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1275" t="inlineStr"/>
       <c r="L1275" t="n">
         <v>1</v>
       </c>
@@ -43215,11 +43255,7 @@
       </c>
       <c r="I1276" t="inlineStr"/>
       <c r="J1276" t="inlineStr"/>
-      <c r="K1276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1276" t="inlineStr"/>
       <c r="L1276" t="n">
         <v>1</v>
       </c>
@@ -43252,11 +43288,7 @@
       </c>
       <c r="I1277" t="inlineStr"/>
       <c r="J1277" t="inlineStr"/>
-      <c r="K1277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1277" t="inlineStr"/>
       <c r="L1277" t="n">
         <v>1</v>
       </c>
@@ -43289,11 +43321,7 @@
       </c>
       <c r="I1278" t="inlineStr"/>
       <c r="J1278" t="inlineStr"/>
-      <c r="K1278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1278" t="inlineStr"/>
       <c r="L1278" t="n">
         <v>1</v>
       </c>
@@ -43326,11 +43354,7 @@
       </c>
       <c r="I1279" t="inlineStr"/>
       <c r="J1279" t="inlineStr"/>
-      <c r="K1279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1279" t="inlineStr"/>
       <c r="L1279" t="n">
         <v>1</v>
       </c>
@@ -43363,11 +43387,7 @@
       </c>
       <c r="I1280" t="inlineStr"/>
       <c r="J1280" t="inlineStr"/>
-      <c r="K1280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1280" t="inlineStr"/>
       <c r="L1280" t="n">
         <v>1</v>
       </c>
@@ -43400,11 +43420,7 @@
       </c>
       <c r="I1281" t="inlineStr"/>
       <c r="J1281" t="inlineStr"/>
-      <c r="K1281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1281" t="inlineStr"/>
       <c r="L1281" t="n">
         <v>1</v>
       </c>
@@ -43437,11 +43453,7 @@
       </c>
       <c r="I1282" t="inlineStr"/>
       <c r="J1282" t="inlineStr"/>
-      <c r="K1282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1282" t="inlineStr"/>
       <c r="L1282" t="n">
         <v>1</v>
       </c>
@@ -43474,11 +43486,7 @@
       </c>
       <c r="I1283" t="inlineStr"/>
       <c r="J1283" t="inlineStr"/>
-      <c r="K1283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1283" t="inlineStr"/>
       <c r="L1283" t="n">
         <v>1</v>
       </c>
@@ -43511,11 +43519,7 @@
       </c>
       <c r="I1284" t="inlineStr"/>
       <c r="J1284" t="inlineStr"/>
-      <c r="K1284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1284" t="inlineStr"/>
       <c r="L1284" t="n">
         <v>1</v>
       </c>
@@ -43548,11 +43552,7 @@
       </c>
       <c r="I1285" t="inlineStr"/>
       <c r="J1285" t="inlineStr"/>
-      <c r="K1285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1285" t="inlineStr"/>
       <c r="L1285" t="n">
         <v>1</v>
       </c>
@@ -43585,11 +43585,7 @@
       </c>
       <c r="I1286" t="inlineStr"/>
       <c r="J1286" t="inlineStr"/>
-      <c r="K1286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1286" t="inlineStr"/>
       <c r="L1286" t="n">
         <v>1</v>
       </c>
@@ -43622,11 +43618,7 @@
       </c>
       <c r="I1287" t="inlineStr"/>
       <c r="J1287" t="inlineStr"/>
-      <c r="K1287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1287" t="inlineStr"/>
       <c r="L1287" t="n">
         <v>1</v>
       </c>
@@ -43659,11 +43651,7 @@
       </c>
       <c r="I1288" t="inlineStr"/>
       <c r="J1288" t="inlineStr"/>
-      <c r="K1288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1288" t="inlineStr"/>
       <c r="L1288" t="n">
         <v>1</v>
       </c>
